--- a/js/The_Bookworm_Theory_2.0.csv.xlsx
+++ b/js/The_Bookworm_Theory_2.0.csv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New Project\The BookListing-BookWorm\The-BookListing-BookWorm\js\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="The_Bookworm_Theory_2.0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">The_Bookworm_Theory_2.0!$A$1:$K$39</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="98">
   <si>
     <t>Sr No.</t>
   </si>
@@ -204,21 +207,6 @@
     <t>Classic</t>
   </si>
   <si>
-    <t>Dhara</t>
-  </si>
-  <si>
-    <t>Hiral</t>
-  </si>
-  <si>
-    <t>Monika</t>
-  </si>
-  <si>
-    <t>Sandhya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No </t>
-  </si>
-  <si>
     <t>Manikantha</t>
   </si>
   <si>
@@ -237,9 +225,6 @@
     <t>Harper Lee</t>
   </si>
   <si>
-    <t>Akash</t>
-  </si>
-  <si>
     <t>The Blind Beauty</t>
   </si>
   <si>
@@ -303,7 +288,34 @@
     <t>Sir Arthur Conan Doyle</t>
   </si>
   <si>
-    <t>Nidhi</t>
+    <t>The LowLand</t>
+  </si>
+  <si>
+    <t>Jhumpa Lahiri</t>
+  </si>
+  <si>
+    <t>Robin Sharma</t>
+  </si>
+  <si>
+    <t>With Dhara's Friend</t>
+  </si>
+  <si>
+    <t>The FountainHead</t>
+  </si>
+  <si>
+    <t>Classic Fiction</t>
+  </si>
+  <si>
+    <t>Deep Patel</t>
+  </si>
+  <si>
+    <t>Akash Patel</t>
+  </si>
+  <si>
+    <t>The Monk Who Sold His Ferrari</t>
+  </si>
+  <si>
+    <t>Sai kumar</t>
   </si>
 </sst>
 </file>
@@ -1117,9 +1129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1189,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1212,7 +1224,7 @@
         <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1235,7 +1247,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1258,7 +1270,7 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1281,10 +1293,7 @@
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1307,7 +1316,7 @@
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1330,7 +1339,7 @@
         <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1353,9 +1362,6 @@
         <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1379,7 +1385,10 @@
         <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1402,7 +1411,7 @@
         <v>24</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1425,14 +1434,9 @@
         <v>24</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" t="s">
-        <v>94</v>
-      </c>
-      <c r="J12" s="2">
-        <v>42352</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -1454,10 +1458,7 @@
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1480,7 +1481,7 @@
         <v>24</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1503,7 +1504,7 @@
         <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1526,10 +1527,7 @@
         <v>24</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -1552,7 +1550,7 @@
         <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1575,7 +1573,7 @@
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1598,7 +1596,10 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -1621,7 +1622,7 @@
         <v>24</v>
       </c>
       <c r="H20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -1644,10 +1645,7 @@
         <v>24</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -1670,10 +1668,7 @@
         <v>24</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -1696,7 +1691,10 @@
         <v>24</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -1719,7 +1717,7 @@
         <v>24</v>
       </c>
       <c r="H24" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -1742,7 +1740,7 @@
         <v>24</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1750,10 +1748,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
@@ -1765,7 +1763,7 @@
         <v>24</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1773,10 +1771,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D27" t="s">
         <v>60</v>
@@ -1788,27 +1786,22 @@
         <v>24</v>
       </c>
       <c r="H27" t="s">
-        <v>65</v>
-      </c>
-      <c r="I27" t="s">
-        <v>72</v>
-      </c>
-      <c r="J27" s="2">
-        <v>42349</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -1817,24 +1810,19 @@
         <v>24</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" t="s">
-        <v>72</v>
-      </c>
-      <c r="J28" s="2">
-        <v>42349</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="J28" s="2"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D29" t="s">
         <v>60</v>
@@ -1846,7 +1834,7 @@
         <v>24</v>
       </c>
       <c r="H29" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1854,10 +1842,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D30" t="s">
         <v>60</v>
@@ -1869,7 +1857,7 @@
         <v>24</v>
       </c>
       <c r="H30" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1877,22 +1865,19 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
-      </c>
-      <c r="I31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1912,24 +1897,24 @@
         <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
         <v>12</v>
@@ -1938,24 +1923,24 @@
         <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H33" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E34" t="s">
         <v>30</v>
@@ -1964,24 +1949,24 @@
         <v>208</v>
       </c>
       <c r="G34" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E35" t="s">
         <v>12</v>
@@ -1990,24 +1975,24 @@
         <v>429</v>
       </c>
       <c r="G35" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E36" t="s">
         <v>12</v>
@@ -2016,22 +2001,95 @@
         <v>338</v>
       </c>
       <c r="G36" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" t="s">
+        <v>94</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
     </row>
     <row r="51" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J51" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K39"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
